--- a/X_2y_Data.xlsx
+++ b/X_2y_Data.xlsx
@@ -2,25 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minglun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minglun/PycharmProjects/richzhangs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260947EF-A177-5F47-91EA-AF73840B66A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C4F2D6-E4E2-4C44-95D6-0405E73C5BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="760" windowWidth="16200" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +56,28 @@
   <si>
     <t>Stock Splits</t>
   </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -67,15 +93,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,19 +130,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,18 +459,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H506"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:V506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" style="3" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,8 +497,20 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43467</v>
       </c>
@@ -476,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43468</v>
       </c>
@@ -502,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43469</v>
       </c>
@@ -528,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43472</v>
       </c>
@@ -554,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43473</v>
       </c>
@@ -580,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43474</v>
       </c>
@@ -606,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43475</v>
       </c>
@@ -631,8 +691,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43476</v>
       </c>
@@ -657,8 +720,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43479</v>
       </c>
@@ -684,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43480</v>
       </c>
@@ -709,8 +775,20 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="S11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43481</v>
       </c>
@@ -735,8 +813,20 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="S12" s="6">
+        <v>3</v>
+      </c>
+      <c r="T12" s="6">
+        <v>30</v>
+      </c>
+      <c r="U12" s="6">
+        <v>45</v>
+      </c>
+      <c r="V12" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43482</v>
       </c>
@@ -762,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43483</v>
       </c>
@@ -788,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43487</v>
       </c>
@@ -814,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43488</v>
       </c>
